--- a/monster power calcs - encounters.xlsx
+++ b/monster power calcs - encounters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python (D)\AI_Overlord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{03227DDA-5838-424F-A287-2AD109636920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A4F2C-4488-4401-A558-A862207B46E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quest power calcs" sheetId="1" r:id="rId1"/>
     <sheet name="quest_import" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'quest power calcs'!$A$4:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'quest power calcs'!$A$5:$C$55</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -339,12 +352,15 @@
   </si>
   <si>
     <t>questC1_encounterTOTAL</t>
+  </si>
+  <si>
+    <t>n_monsters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,10 +917,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
@@ -1235,14 +1248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1298,7 @@
         <v>57</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:G1" si="0">COUNTIF(D5:D55, "&gt;0")</f>
+        <f t="shared" ref="D1:G1" si="0">COUNTIF(D6:D56, "&gt;0")</f>
         <v>3</v>
       </c>
       <c r="E1" s="1">
@@ -1301,1121 +1314,1219 @@
         <v>3</v>
       </c>
       <c r="K1" s="1">
-        <f>COUNTIF(K5:K55, "&gt;0")</f>
+        <f t="shared" ref="K1:P1" si="1">COUNTIF(K6:K56, "&gt;0")</f>
         <v>12</v>
       </c>
       <c r="L1" s="1">
-        <f>COUNTIF(L5:L55, "&gt;0")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M1" s="1">
-        <f>COUNTIF(M5:M55, "&gt;0")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N1" s="1">
-        <f>COUNTIF(N5:N55, "&gt;0")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O1" s="1">
-        <f>COUNTIF(O5:O55, "&gt;0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P1" s="1">
-        <f>COUNTIF(P5:P55, "&gt;0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S1" s="1">
-        <f>COUNTIF(S5:S55, "&gt;0")</f>
+        <f t="shared" ref="S1:Y1" si="2">COUNTIF(S6:S56, "&gt;0")</f>
         <v>8</v>
       </c>
       <c r="T1" s="1">
-        <f>COUNTIF(T5:T55, "&gt;0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U1" s="1">
-        <f>COUNTIF(U5:U55, "&gt;0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V1" s="1">
-        <f>COUNTIF(V5:V55, "&gt;0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W1" s="1">
-        <f>COUNTIF(W5:W55, "&gt;0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="X1" s="1">
-        <f>COUNTIF(X5:X55, "&gt;0")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Y1" s="1">
-        <f>COUNTIF(Y5:Y55, "&gt;0")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA1" s="1">
-        <f>COUNTIF(AA5:AA55, "&gt;0")</f>
+        <f t="shared" ref="AA1:AF1" si="3">COUNTIF(AA6:AA56, "&gt;0")</f>
         <v>15</v>
       </c>
       <c r="AB1" s="1">
-        <f>COUNTIF(AB5:AB55, "&gt;0")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC1" s="1">
-        <f>COUNTIF(AC5:AC55, "&gt;0")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AD1" s="1">
-        <f>COUNTIF(AD5:AD55, "&gt;0")</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AE1" s="1">
-        <f>COUNTIF(AE5:AE55, "&gt;0")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF1" s="1">
-        <f>COUNTIF(AF5:AF55, "&gt;0")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AI1" s="1">
-        <f>COUNTIF(AI5:AI55, "&gt;0")</f>
+        <f>COUNTIF(AI6:AI56, "&gt;0")</f>
         <v>15</v>
       </c>
       <c r="AJ1" s="1">
-        <f>COUNTIF(AJ5:AJ55, "&gt;0")</f>
+        <f>COUNTIF(AJ6:AJ56, "&gt;0")</f>
         <v>2</v>
       </c>
       <c r="AK1" s="1">
-        <f>COUNTIF(AK5:AK55, "&gt;0")</f>
+        <f>COUNTIF(AK6:AK56, "&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AL1" s="1">
-        <f>COUNTIF(AL5:AL55, "&gt;0")</f>
+        <f>COUNTIF(AL6:AL56, "&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AM1" s="1">
-        <f>COUNTIF(AM5:AM55, "&gt;0")</f>
+        <f>COUNTIF(AM6:AM56, "&gt;0")</f>
         <v>4</v>
       </c>
       <c r="AN1" s="1">
-        <f t="shared" ref="AN1" si="1">COUNTIF(AN5:AN55, "&gt;0")</f>
+        <f t="shared" ref="AN1" si="4">COUNTIF(AN6:AN56, "&gt;0")</f>
         <v>4</v>
       </c>
       <c r="AQ1" s="1">
-        <f>COUNTIF(AQ5:AQ55, "&gt;0")</f>
+        <f>COUNTIF(AQ6:AQ56, "&gt;0")</f>
         <v>10</v>
       </c>
       <c r="AR1" s="1">
-        <f>COUNTIF(AR5:AR55, "&gt;0")</f>
+        <f>COUNTIF(AR6:AR56, "&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AS1" s="1">
-        <f>COUNTIF(AS5:AS55, "&gt;0")</f>
+        <f>COUNTIF(AS6:AS56, "&gt;0")</f>
         <v>5</v>
       </c>
       <c r="AT1" s="1">
-        <f>COUNTIF(AT5:AT55, "&gt;0")</f>
+        <f>COUNTIF(AT6:AT56, "&gt;0")</f>
         <v>1</v>
       </c>
       <c r="AU1" s="1">
-        <f>COUNTIF(AU5:AU55, "&gt;0")</f>
+        <f>COUNTIF(AU6:AU56, "&gt;0")</f>
         <v>4</v>
       </c>
       <c r="AY1" s="1">
-        <f>COUNTIF(AY5:AY55, "&gt;0")</f>
+        <f>COUNTIF(AY6:AY56, "&gt;0")</f>
         <v>8</v>
       </c>
       <c r="AZ1" s="1">
-        <f>COUNTIF(AZ5:AZ55, "&gt;0")</f>
+        <f>COUNTIF(AZ6:AZ56, "&gt;0")</f>
         <v>5</v>
       </c>
       <c r="BA1" s="1">
-        <f>COUNTIF(BA5:BA55, "&gt;0")</f>
+        <f>COUNTIF(BA6:BA56, "&gt;0")</f>
         <v>3</v>
       </c>
       <c r="BB1" s="1">
-        <f>COUNTIF(BB5:BB55, "&gt;0")</f>
+        <f>COUNTIF(BB6:BB56, "&gt;0")</f>
         <v>4</v>
       </c>
       <c r="BC1" s="1">
-        <f>COUNTIF(BC5:BC55, "&gt;0")</f>
+        <f>COUNTIF(BC6:BC56, "&gt;0")</f>
         <v>3</v>
       </c>
       <c r="BG1" s="1">
-        <f>COUNTIF(BG5:BG55, "&gt;0")</f>
+        <f>COUNTIF(BG6:BG56, "&gt;0")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(D6:D56)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:BG2" si="5">SUM(E6:E56)</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="V2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="W2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X2" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="AB2" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AC2" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AF2" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AI2" s="1">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AK2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AL2" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AM2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AN2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AR2" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AS2" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AT2" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AY2" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BA2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BB2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BC2" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BG2" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3">
-        <f>SUMPRODUCT(D5:D55,$C$5:$C$55)</f>
+      <c r="D3" s="3">
+        <f>SUMPRODUCT(D6:D56,$C$6:$C$56)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="3">
-        <f>SUMPRODUCT(E5:E55,$C$5:$C$55)</f>
+      <c r="E3" s="3">
+        <f>SUMPRODUCT(E6:E56,$C$6:$C$56)</f>
         <v>14</v>
       </c>
-      <c r="F2" s="3">
-        <f>SUMPRODUCT(F5:F55,$C$5:$C$55)</f>
+      <c r="F3" s="3">
+        <f>SUMPRODUCT(F6:F56,$C$6:$C$56)</f>
         <v>19</v>
       </c>
-      <c r="G2" s="3">
-        <f>SUMPRODUCT(G5:G55,$C$5:$C$55)</f>
+      <c r="G3" s="3">
+        <f>SUMPRODUCT(G6:G56,$C$6:$C$56)</f>
         <v>32</v>
       </c>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2" si="2">SUMPRODUCT(K5:K55,$C$5:$C$55)</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3" si="6">SUMPRODUCT(K6:K56,$C$6:$C$56)</f>
         <v>73</v>
       </c>
-      <c r="L2" s="3">
-        <f>SUMPRODUCT(L5:L55,$C$5:$C$55)</f>
+      <c r="L3" s="3">
+        <f>SUMPRODUCT(L6:L56,$C$6:$C$56)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="3">
-        <f>SUMPRODUCT(M5:M55,$C$5:$C$55)</f>
+      <c r="M3" s="3">
+        <f>SUMPRODUCT(M6:M56,$C$6:$C$56)</f>
         <v>14</v>
       </c>
-      <c r="N2" s="3">
-        <f>SUMPRODUCT(N5:N55,$C$5:$C$55)</f>
+      <c r="N3" s="3">
+        <f>SUMPRODUCT(N6:N56,$C$6:$C$56)</f>
         <v>14</v>
       </c>
-      <c r="O2" s="3">
-        <f>SUMPRODUCT(O5:O55,$C$5:$C$55)</f>
+      <c r="O3" s="3">
+        <f>SUMPRODUCT(O6:O56,$C$6:$C$56)</f>
         <v>17</v>
       </c>
-      <c r="P2" s="3">
-        <f>SUMPRODUCT(P5:P55,$C$5:$C$55)</f>
+      <c r="P3" s="3">
+        <f>SUMPRODUCT(P6:P56,$C$6:$C$56)</f>
         <v>17</v>
       </c>
-      <c r="S2" s="3">
-        <f t="shared" ref="S2" si="3">SUMPRODUCT(S5:S55,$C$5:$C$55)</f>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3" si="7">SUMPRODUCT(S6:S56,$C$6:$C$56)</f>
         <v>69</v>
       </c>
-      <c r="T2" s="3">
-        <f>SUMPRODUCT(T5:T55,$C$5:$C$55)</f>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:Y3" si="8">SUMPRODUCT(T6:T56,$C$6:$C$56)</f>
         <v>5</v>
       </c>
-      <c r="U2" s="3">
-        <f>SUMPRODUCT(U5:U55,$C$5:$C$55)</f>
+      <c r="U3" s="3">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="V2" s="3">
-        <f>SUMPRODUCT(V5:V55,$C$5:$C$55)</f>
+      <c r="V3" s="3">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="W2" s="3">
-        <f>SUMPRODUCT(W5:W55,$C$5:$C$55)</f>
+      <c r="W3" s="3">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="X2" s="3">
-        <f>SUMPRODUCT(X5:X55,$C$5:$C$55)</f>
+      <c r="X3" s="3">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="Y2" s="3">
-        <f>SUMPRODUCT(Y5:Y55,$C$5:$C$55)</f>
+      <c r="Y3" s="3">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="AA2" s="3">
-        <f>SUMPRODUCT(AA5:AA55,$C$5:$C$55)</f>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AF3" si="9">SUMPRODUCT(AA6:AA56,$C$6:$C$56)</f>
         <v>97</v>
       </c>
-      <c r="AB2" s="3">
-        <f>SUMPRODUCT(AB5:AB55,$C$5:$C$55)</f>
+      <c r="AB3" s="3">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AC2" s="3">
-        <f>SUMPRODUCT(AC5:AC55,$C$5:$C$55)</f>
+      <c r="AC3" s="3">
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="AD2" s="3">
-        <f>SUMPRODUCT(AD5:AD55,$C$5:$C$55)</f>
+      <c r="AD3" s="3">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="AE2" s="3">
-        <f>SUMPRODUCT(AE5:AE55,$C$5:$C$55)</f>
+      <c r="AE3" s="3">
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="AF2" s="3">
-        <f>SUMPRODUCT(AF5:AF55,$C$5:$C$55)</f>
+      <c r="AF3" s="3">
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
-      <c r="AI2" s="3">
-        <f>SUMPRODUCT(AI5:AI55,$C$5:$C$55)</f>
+      <c r="AI3" s="3">
+        <f>SUMPRODUCT(AI6:AI56,$C$6:$C$56)</f>
         <v>150</v>
       </c>
-      <c r="AJ2" s="3">
-        <f>SUMPRODUCT(AJ5:AJ55,$C$5:$C$55)</f>
+      <c r="AJ3" s="3">
+        <f>SUMPRODUCT(AJ6:AJ56,$C$6:$C$56)</f>
         <v>5</v>
       </c>
-      <c r="AK2" s="3">
-        <f>SUMPRODUCT(AK5:AK55,$C$5:$C$55)</f>
+      <c r="AK3" s="3">
+        <f>SUMPRODUCT(AK6:AK56,$C$6:$C$56)</f>
         <v>11</v>
       </c>
-      <c r="AL2" s="3">
-        <f>SUMPRODUCT(AL5:AL55,$C$5:$C$55)</f>
+      <c r="AL3" s="3">
+        <f>SUMPRODUCT(AL6:AL56,$C$6:$C$56)</f>
         <v>10</v>
       </c>
-      <c r="AM2" s="3">
-        <f>SUMPRODUCT(AM5:AM55,$C$5:$C$55)</f>
+      <c r="AM3" s="3">
+        <f>SUMPRODUCT(AM6:AM56,$C$6:$C$56)</f>
         <v>14</v>
       </c>
-      <c r="AN2" s="3">
-        <f t="shared" ref="AN2" si="4">SUMPRODUCT(AN5:AN55,$C$5:$C$55)</f>
+      <c r="AN3" s="3">
+        <f t="shared" ref="AN3" si="10">SUMPRODUCT(AN6:AN56,$C$6:$C$56)</f>
         <v>28</v>
       </c>
-      <c r="AQ2" s="3">
-        <f>SUMPRODUCT(AQ5:AQ55,$C$5:$C$55)</f>
+      <c r="AQ3" s="3">
+        <f>SUMPRODUCT(AQ6:AQ56,$C$6:$C$56)</f>
         <v>68</v>
       </c>
-      <c r="AR2" s="3">
-        <f>SUMPRODUCT(AR5:AR55,$C$5:$C$55)</f>
+      <c r="AR3" s="3">
+        <f>SUMPRODUCT(AR6:AR56,$C$6:$C$56)</f>
         <v>16</v>
       </c>
-      <c r="AS2" s="3">
-        <f>SUMPRODUCT(AS5:AS55,$C$5:$C$55)</f>
+      <c r="AS3" s="3">
+        <f>SUMPRODUCT(AS6:AS56,$C$6:$C$56)</f>
         <v>32</v>
       </c>
-      <c r="AT2" s="3">
-        <f>SUMPRODUCT(AT5:AT55,$C$5:$C$55)</f>
+      <c r="AT3" s="3">
+        <f>SUMPRODUCT(AT6:AT56,$C$6:$C$56)</f>
         <v>10</v>
       </c>
-      <c r="AU2" s="3">
-        <f>SUMPRODUCT(AU5:AU55,$C$5:$C$55)</f>
+      <c r="AU3" s="3">
+        <f>SUMPRODUCT(AU6:AU56,$C$6:$C$56)</f>
         <v>39</v>
       </c>
-      <c r="AY2" s="3">
-        <f>SUMPRODUCT(AY5:AY55,$C$5:$C$55)</f>
+      <c r="AY3" s="3">
+        <f>SUMPRODUCT(AY6:AY56,$C$6:$C$56)</f>
         <v>97</v>
       </c>
-      <c r="AZ2" s="3">
-        <f>SUMPRODUCT(AZ5:AZ55,$C$5:$C$55)</f>
+      <c r="AZ3" s="3">
+        <f>SUMPRODUCT(AZ6:AZ56,$C$6:$C$56)</f>
         <v>11</v>
       </c>
-      <c r="BA2" s="3">
-        <f>SUMPRODUCT(BA5:BA55,$C$5:$C$55)</f>
+      <c r="BA3" s="3">
+        <f>SUMPRODUCT(BA6:BA56,$C$6:$C$56)</f>
         <v>14</v>
       </c>
-      <c r="BB2" s="3">
-        <f>SUMPRODUCT(BB5:BB55,$C$5:$C$55)</f>
+      <c r="BB3" s="3">
+        <f>SUMPRODUCT(BB6:BB56,$C$6:$C$56)</f>
         <v>11</v>
       </c>
-      <c r="BC2" s="3">
-        <f>SUMPRODUCT(BC5:BC55,$C$5:$C$55)</f>
+      <c r="BC3" s="3">
+        <f>SUMPRODUCT(BC6:BC56,$C$6:$C$56)</f>
         <v>36</v>
       </c>
-      <c r="BG2" s="3">
-        <f t="shared" ref="BG2" si="5">SUMPRODUCT(BG5:BG55,$C$5:$C$55)</f>
+      <c r="BG3" s="3">
+        <f t="shared" ref="BG3" si="11">SUMPRODUCT(BG6:BG56,$C$6:$C$56)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="1">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3</v>
-      </c>
-      <c r="V3" s="1">
-        <v>3</v>
-      </c>
-      <c r="W3" s="1">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="T4" s="1">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-      <c r="O4" s="1">
-        <v>4</v>
-      </c>
-      <c r="P4" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>6</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1">
-        <v>4</v>
-      </c>
-      <c r="X4" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>5</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>6</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5">
-        <f>K5/$B5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <f>SUM(D5:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <f>S5/$B5</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <f>SUM(L5:Q5)</f>
-        <v>0</v>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
-      <c r="Z5" s="5">
-        <f>AA5/$B5</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AA5" s="1">
-        <f>SUM(T5:Y5)</f>
-        <v>1</v>
-      </c>
-      <c r="AH5" s="5">
-        <f>AI5/$B5</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <f>SUM(AB5:AG5)</f>
-        <v>0</v>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>4</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="5">
-        <f>AQ5/$B5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AQ5" s="1">
-        <f>SUM(AJ5:AO5)</f>
-        <v>2</v>
-      </c>
-      <c r="AX5" s="5">
-        <f>AY5/$B5</f>
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <f>SUM(AR5:AW5)</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AZ5" s="1">
         <v>1</v>
       </c>
+      <c r="BA5" s="1">
+        <v>2</v>
+      </c>
       <c r="BB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="5">
-        <f>BG5/$B5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="BG5" s="1">
-        <f>SUM(AZ5:BE5)</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J54" si="6">K6/$B6</f>
+        <f>K6/$B6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K41" si="12">SUM(D6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <f>S6/$B6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S41" si="13">SUM(L6:Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5">
+        <f>AA6/$B6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" ref="AA6:AA37" si="14">SUM(T6:Y6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="5">
+        <f>AI6/$B6</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" ref="AI6:AI37" si="15">SUM(AB6:AG6)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="5">
+        <f>AQ6/$B6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K6" s="1">
-        <f>SUM(D6:I6)</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
-        <f t="shared" ref="R6:R54" si="7">S6/$B6</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <f>SUM(L6:Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="5">
-        <f t="shared" ref="Z6:Z54" si="8">AA6/$B6</f>
+      <c r="AQ6" s="1">
+        <f t="shared" ref="AQ6:AQ37" si="16">SUM(AJ6:AO6)</f>
+        <v>2</v>
+      </c>
+      <c r="AX6" s="5">
+        <f>AY6/$B6</f>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <f t="shared" ref="AY6:AY37" si="17">SUM(AR6:AW6)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="5">
+        <f>BG6/$B6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AA6" s="1">
-        <f>SUM(T6:Y6)</f>
-        <v>1</v>
-      </c>
-      <c r="AH6" s="5">
-        <f t="shared" ref="AH6:AH54" si="9">AI6/$B6</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <f>SUM(AB6:AG6)</f>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="5">
-        <f t="shared" ref="AP6:AP54" si="10">AQ6/$B6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AQ6" s="1">
-        <f>SUM(AJ6:AO6)</f>
-        <v>2</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="5">
-        <f t="shared" ref="AX6:AX54" si="11">AY6/$B6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AY6" s="1">
-        <f>SUM(AR6:AW6)</f>
-        <v>2</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="5">
-        <f t="shared" ref="BF6:BF54" si="12">BG6/$B6</f>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="BG6" s="1">
-        <f>SUM(AZ6:BE6)</f>
-        <v>1</v>
+        <f t="shared" ref="BG6:BG37" si="18">SUM(AZ6:BE6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
       <c r="J7" s="5">
-        <f t="shared" si="6"/>
-        <v>1.1666666666666667</v>
+        <f t="shared" ref="J7:J55" si="19">K7/$B7</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM(D7:I7)</f>
-        <v>7</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R7:R55" si="20">S7/$B7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" ref="Z7:Z55" si="21">AA7/$B7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S7" s="1">
-        <f>SUM(L7:Q7)</f>
-        <v>2</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2</v>
-      </c>
-      <c r="U7" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AA7" s="1">
-        <f>SUM(T7:Y7)</f>
-        <v>6</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AH7" s="5">
-        <f t="shared" si="9"/>
-        <v>1.1666666666666667</v>
+        <f t="shared" ref="AH7:AH55" si="22">AI7/$B7</f>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <f>SUM(AB7:AG7)</f>
-        <v>7</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
         <v>1</v>
       </c>
       <c r="AP7" s="5">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f t="shared" ref="AP7:AP55" si="23">AQ7/$B7</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ7" s="1">
-        <f>SUM(AJ7:AO7)</f>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>2</v>
       </c>
       <c r="AX7" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="AX7:AX55" si="24">AY7/$B7</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AY7" s="1">
-        <f>SUM(AR7:AW7)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="BB7" s="1">
         <v>1</v>
       </c>
       <c r="BF7" s="5">
-        <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="BF7:BF55" si="25">BG7/$B7</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BG7" s="1">
-        <f>SUM(AZ7:BE7)</f>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K8" s="1">
-        <f>SUM(D8:I8)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="S8" s="1">
-        <f>SUM(L8:Q8)</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
       </c>
       <c r="Z8" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <f>SUM(T8:Y8)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="AB8" s="1">
         <v>2</v>
       </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
       <c r="AD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1">
         <v>2</v>
       </c>
       <c r="AH8" s="5">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="22"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="AI8" s="1">
-        <f>SUM(AB8:AG8)</f>
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="5">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AX8" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="5">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BG8" s="1">
+        <f t="shared" si="18"/>
         <v>4</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="1">
-        <f>SUM(AJ8:AO8)</f>
-        <v>3</v>
-      </c>
-      <c r="AX8" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY8" s="1">
-        <f>SUM(AR8:AW8)</f>
-        <v>0</v>
-      </c>
-      <c r="BF8" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1">
-        <f>SUM(AZ8:BE8)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="5">
+        <f t="shared" si="22"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <f>SUM(D9:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <f>SUM(L9:Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <f>SUM(T9:Y9)</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <f>SUM(AB9:AG9)</f>
-        <v>0</v>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
       </c>
       <c r="AP9" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
-        <f>SUM(AJ9:AO9)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="AX9" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <f>SUM(AR9:AW9)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF9" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <f>SUM(AZ9:BE9)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <f>SUM(L10:Q10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <f>SUM(T10:Y10)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f>SUM(AB10:AG10)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <f>SUM(AJ10:AO10)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <f>SUM(AR10:AW10)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <f>SUM(AZ10:BE10)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -2424,427 +2535,421 @@
         <v>7</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <f>SUM(L11:Q11)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <f>SUM(T11:Y11)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <f>SUM(AB11:AG11)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <f>SUM(AJ11:AO11)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <f>SUM(AR11:AW11)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG11" s="1">
-        <f>SUM(AZ11:BE11)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f>SUM(L12:Q12)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f>SUM(T12:Y12)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f>SUM(AB12:AG12)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <f>SUM(AJ12:AO12)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <f>SUM(AR12:AW12)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <f>SUM(AZ12:BE12)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
       <c r="J13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM(D13:I13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f>SUM(L13:Q13)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <f>SUM(T13:Y13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <f>SUM(AB13:AG13)</f>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AP13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <f>SUM(AJ13:AO13)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <f>SUM(AR13:AW13)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <f>SUM(AZ13:BE13)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <f>SUM(D14:I14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f>SUM(L14:Q14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <f>SUM(T14:Y14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="AI14" s="1">
-        <f>SUM(AB14:AG14)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AP14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <f>SUM(AJ14:AO14)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <f>SUM(AR14:AW14)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <f>SUM(AZ14:BE14)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="5">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <f>SUM(D15:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <f>SUM(L15:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1">
-        <f>SUM(T15:Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="AI15" s="1">
-        <f>SUM(AB15:AG15)</f>
-        <v>5</v>
-      </c>
       <c r="AP15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <f>SUM(AJ15:AO15)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <f>SUM(AR15:AW15)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF15" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <f>SUM(AZ15:BE15)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <f>SUM(D16:I16)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f>SUM(L16:Q16)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <f>SUM(T16:Y16)</f>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>2</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="5">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>2.5</v>
       </c>
       <c r="AI16" s="1">
-        <f>SUM(AB16:AG16)</f>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="AP16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <f>SUM(AJ16:AO16)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <f>SUM(AR16:AW16)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <f>SUM(AZ16:BE16)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2853,2807 +2958,2880 @@
         <v>6</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <f>SUM(D17:I17)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f>SUM(L17:Q17)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <f>SUM(T17:Y17)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1</v>
       </c>
       <c r="AH17" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="AI17" s="1">
-        <f>SUM(AB17:AG17)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="AP17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <f>SUM(AJ17:AO17)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <f>SUM(AR17:AW17)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <f>SUM(AZ17:BE17)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f>SUM(D18:I18)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <f>SUM(L18:Q18)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <f>SUM(T18:Y18)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <f>SUM(AB18:AG18)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <f>SUM(AJ18:AO18)</f>
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AX18" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <f>SUM(AR18:AW18)</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BF18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG18" s="1">
-        <f>SUM(AZ18:BE18)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f>SUM(D19:I19)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f>SUM(L19:Q19)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f>SUM(T19:Y19)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f>SUM(AB19:AG19)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <f>SUM(AJ19:AO19)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1</v>
       </c>
       <c r="AX19" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
-        <f>SUM(AR19:AW19)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="BF19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG19" s="1">
-        <f>SUM(AZ19:BE19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <f>SUM(D20:I20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f>SUM(L20:Q20)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f>SUM(T20:Y20)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <f>SUM(AB20:AG20)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <f>SUM(AJ20:AO20)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <f>SUM(AR20:AW20)</f>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BF20" s="5">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="BG20" s="1">
-        <f>SUM(AZ20:BE20)</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f>SUM(D21:I21)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f>SUM(L21:Q21)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f>SUM(T21:Y21)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <f>SUM(AB21:AG21)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <f>SUM(AJ21:AO21)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <f>SUM(AR21:AW21)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>1</v>
       </c>
       <c r="BF21" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="BG21" s="1">
-        <f>SUM(AZ21:BE21)</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <f>SUM(D22:I22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f>SUM(L22:Q22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <f>SUM(T22:Y22)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <f>SUM(AB22:AG22)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <f>SUM(AJ22:AO22)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <f>SUM(AR22:AW22)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG22" s="1">
-        <f>SUM(AZ22:BE22)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <f>SUM(D23:I23)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f>SUM(L23:Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z23" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <f>SUM(T23:Y23)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AH23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <f>SUM(AB23:AG23)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <f>SUM(AJ23:AO23)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <f>SUM(AR23:AW23)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG23" s="1">
-        <f>SUM(AZ23:BE23)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <f>SUM(D24:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f>SUM(L24:Q24)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AA24" s="1">
-        <f>SUM(T24:Y24)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AH24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <f>SUM(AB24:AG24)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <f>SUM(AJ24:AO24)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <f>SUM(AR24:AW24)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG24" s="1">
-        <f>SUM(AZ24:BE24)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f>SUM(D25:I25)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="S25" s="1">
-        <f>SUM(L25:Q25)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <f>SUM(T25:Y25)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <f>SUM(AB25:AG25)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <f>SUM(AJ25:AO25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX25" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <f>SUM(AR25:AW25)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG25" s="1">
-        <f>SUM(AZ25:BE25)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f>SUM(D26:I26)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f>SUM(L26:Q26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <f>SUM(T26:Y26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <f>SUM(AB26:AG26)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <f>SUM(AJ26:AO26)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <f>SUM(AR26:AW26)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG26" s="1">
-        <f>SUM(AZ26:BE26)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <f>SUM(D27:I27)</f>
-        <v>2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f>SUM(L27:Q27)</f>
-        <v>2</v>
-      </c>
-      <c r="V27" s="1">
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <f>SUM(T27:Y27)</f>
-        <v>2</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AH27" s="5">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <f>SUM(AB27:AG27)</f>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AP27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <f>SUM(AJ27:AO27)</f>
-        <v>0</v>
-      </c>
-      <c r="AR27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU27" s="1">
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AX27" s="5">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <f>SUM(AR27:AW27)</f>
-        <v>6</v>
-      </c>
-      <c r="AZ27" s="1">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BF27" s="5">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="BG27" s="1">
-        <f>SUM(AZ27:BE27)</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K28" s="1">
-        <f>SUM(D28:I28)</f>
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
         <v>1</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.5</v>
       </c>
       <c r="S28" s="1">
-        <f>SUM(L28:Q28)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.5</v>
       </c>
       <c r="AA28" s="1">
-        <f>SUM(T28:Y28)</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="1">
         <v>1</v>
       </c>
       <c r="AH28" s="5">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f t="shared" si="22"/>
+        <v>0.75</v>
       </c>
       <c r="AI28" s="1">
-        <f>SUM(AB28:AG28)</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="AP28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <f>SUM(AJ28:AO28)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>2</v>
       </c>
       <c r="AU28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX28" s="5">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f t="shared" si="24"/>
+        <v>1.5</v>
       </c>
       <c r="AY28" s="1">
-        <f>SUM(AR28:AW28)</f>
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AZ28" s="1">
         <v>1</v>
       </c>
       <c r="BF28" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.25</v>
       </c>
       <c r="BG28" s="1">
-        <f>SUM(AZ28:BE28)</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K29" s="1">
-        <f>SUM(D29:I29)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f>SUM(L29:Q29)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <f>SUM(T29:Y29)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
       </c>
       <c r="AH29" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.5</v>
       </c>
       <c r="AI29" s="1">
-        <f>SUM(AB29:AG29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="AP29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <f>SUM(AJ29:AO29)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>1</v>
       </c>
       <c r="AX29" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.5</v>
       </c>
       <c r="AY29" s="1">
-        <f>SUM(AR29:AW29)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="BF29" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG29" s="1">
-        <f>SUM(AZ29:BE29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <f>SUM(D30:I30)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f>SUM(L30:Q30)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <f>SUM(T30:Y30)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI30" s="1">
-        <f>SUM(AB30:AG30)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <f>SUM(AJ30:AO30)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <f>SUM(AR30:AW30)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <f>SUM(AZ30:BE30)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K31" s="1">
-        <f>SUM(D31:I31)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f>SUM(L31:Q31)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <f>SUM(T31:Y31)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI31" s="1">
-        <f>SUM(AB31:AG31)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <f>SUM(AJ31:AO31)</f>
-        <v>0</v>
-      </c>
-      <c r="AR31" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>8</v>
-      </c>
-      <c r="AU31" s="1">
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AX31" s="5">
-        <f t="shared" si="11"/>
-        <v>2.3333333333333335</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <f>SUM(AR31:AW31)</f>
-        <v>28</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="BF31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG31" s="1">
-        <f>SUM(AZ31:BE31)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K32" s="1">
-        <f>SUM(D32:I32)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <f>SUM(L32:Q32)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <f>SUM(T32:Y32)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI32" s="1">
-        <f>SUM(AB32:AG32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <f>SUM(AJ32:AO32)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AS32" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>12</v>
       </c>
       <c r="AX32" s="5">
-        <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="24"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AY32" s="1">
-        <f>SUM(AR32:AW32)</f>
-        <v>8</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="BF32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG32" s="1">
-        <f>SUM(AZ32:BE32)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
         <v>4</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <f>SUM(D33:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <f>SUM(L33:Q33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1">
-        <f>SUM(T33:Y33)</f>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="1">
-        <f>SUM(AB33:AG33)</f>
-        <v>0</v>
-      </c>
-      <c r="AP33" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="1">
-        <f>SUM(AJ33:AO33)</f>
-        <v>0</v>
+      <c r="AS33" s="1">
+        <v>4</v>
       </c>
       <c r="AX33" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AY33" s="1">
-        <f>SUM(AR33:AW33)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="BF33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG33" s="1">
-        <f>SUM(AZ33:BE33)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <f>SUM(D34:I34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <f>SUM(L34:Q34)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <f>SUM(T34:Y34)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI34" s="1">
-        <f>SUM(AB34:AG34)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <f>SUM(AJ34:AO34)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <f>SUM(AR34:AW34)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG34" s="1">
-        <f>SUM(AZ34:BE34)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <f>SUM(D35:I35)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <f>SUM(L35:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="1">
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <f>SUM(T35:Y35)</f>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AH35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI35" s="1">
-        <f>SUM(AB35:AG35)</f>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="1">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AP35" s="5">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <f>SUM(AJ35:AO35)</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AX35" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <f>SUM(AR35:AW35)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG35" s="1">
-        <f>SUM(AZ35:BE35)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <f>SUM(D36:I36)</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <f>SUM(L36:Q36)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>2</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <f>SUM(T36:Y36)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AH36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <f>SUM(AB36:AG36)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>1</v>
       </c>
       <c r="AP36" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>0.5</v>
       </c>
       <c r="AQ36" s="1">
-        <f>SUM(AJ36:AO36)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="AX36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY36" s="1">
-        <f>SUM(AR36:AW36)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG36" s="1">
-        <f>SUM(AZ36:BE36)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="K37" s="1">
-        <f>SUM(D37:I37)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f>SUM(L37:Q37)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA37" s="1">
-        <f>SUM(T37:Y37)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI37" s="1">
-        <f>SUM(AB37:AG37)</f>
-        <v>0</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AP37" s="5">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <f>SUM(AJ37:AO37)</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AX37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY37" s="1">
-        <f>SUM(AR37:AW37)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG37" s="1">
-        <f>SUM(AZ37:BE37)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <f>SUM(D38:I38)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <f>SUM(L38:Q38)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA38" s="1">
-        <f>SUM(T38:Y38)</f>
+        <f t="shared" ref="AA38:AA56" si="26">SUM(T38:Y38)</f>
         <v>0</v>
       </c>
       <c r="AH38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <f>SUM(AB38:AG38)</f>
-        <v>0</v>
+        <f t="shared" ref="AI38:AI56" si="27">SUM(AB38:AG38)</f>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>1</v>
       </c>
       <c r="AP38" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>0.5</v>
       </c>
       <c r="AQ38" s="1">
-        <f>SUM(AJ38:AO38)</f>
-        <v>0</v>
+        <f t="shared" ref="AQ38:AQ56" si="28">SUM(AJ38:AO38)</f>
+        <v>1</v>
       </c>
       <c r="AX38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY38" s="1">
-        <f>SUM(AR38:AW38)</f>
+        <f t="shared" ref="AY38:AY56" si="29">SUM(AR38:AW38)</f>
         <v>0</v>
       </c>
       <c r="BF38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG38" s="1">
-        <f>SUM(AZ38:BE38)</f>
+        <f t="shared" ref="BG38:BG56" si="30">SUM(AZ38:BE38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K39" s="1">
-        <f>SUM(D39:I39)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <f>SUM(L39:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <f>SUM(T39:Y39)</f>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI39" s="1">
-        <f>SUM(AB39:AG39)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <f>SUM(AJ39:AO39)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY39" s="1">
-        <f>SUM(AR39:AW39)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BF39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG39" s="1">
-        <f>SUM(AZ39:BE39)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f>SUM(D40:I40)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <f>SUM(L40:Q40)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>2</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="AA40" s="1">
-        <f>SUM(T40:Y40)</f>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="AH40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI40" s="1">
-        <f>SUM(AB40:AG40)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <f>SUM(AJ40:AO40)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY40" s="1">
-        <f>SUM(AR40:AW40)</f>
-        <v>0</v>
-      </c>
-      <c r="BB40" s="1">
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="BF40" s="5">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="BG40" s="1">
-        <f>SUM(AZ40:BE40)</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
       <c r="J41" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ref="K41:K42" si="13">SUM(D41:I41)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:S42" si="14">SUM(L41:Q41)</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
         <v>1</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AA41" s="1">
-        <f>SUM(T41:Y41)</f>
-        <v>1</v>
-      </c>
-      <c r="AD41" s="1">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AH41" s="5">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AI41" s="1">
-        <f>SUM(AB41:AG41)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="AP41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <f>SUM(AJ41:AO41)</f>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="1">
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="AY41" s="1">
-        <f>SUM(AR41:AW41)</f>
-        <v>2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>1</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="BG41" s="1">
-        <f>SUM(AZ41:BE41)</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1">
+        <f t="shared" ref="K42:K43" si="31">SUM(D42:I42)</f>
         <v>1</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" ref="S42:S43" si="32">SUM(L42:Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.5</v>
       </c>
       <c r="AA42" s="1">
-        <f>SUM(T42:Y42)</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
         <v>1</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>0.5</v>
       </c>
       <c r="AI42" s="1">
-        <f>SUM(AB42:AG42)</f>
-        <v>1</v>
-      </c>
-      <c r="AL42" s="1">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AP42" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <f>SUM(AJ42:AO42)</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>2</v>
       </c>
       <c r="AX42" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="AY42" s="1">
-        <f>SUM(AR42:AW42)</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG42" s="1">
-        <f>SUM(AZ42:BE42)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <f>SUM(D43:I43)</f>
-        <v>2</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="O43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="S43" s="1">
-        <f>SUM(L43:Q43)</f>
-        <v>4</v>
-      </c>
-      <c r="X43" s="1">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Z43" s="5">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AA43" s="1">
-        <f>SUM(T43:Y43)</f>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
       </c>
       <c r="AH43" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="AI43" s="1">
-        <f>SUM(AB43:AG43)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>1</v>
       </c>
       <c r="AP43" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AQ43" s="1">
-        <f>SUM(AJ43:AO43)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="AX43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY43" s="1">
-        <f>SUM(AR43:AW43)</f>
-        <v>0</v>
-      </c>
-      <c r="BA43" s="1">
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="BF43" s="5">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="BG43" s="1">
-        <f>SUM(AZ43:BE43)</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" ref="K44:K56" si="33">SUM(D44:I44)</f>
+        <v>2</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2</v>
+      </c>
+      <c r="R44" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" ref="S44:S56" si="34">SUM(L44:Q44)</f>
         <v>4</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="6"/>
+      <c r="X44" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="5">
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="K44" s="1">
-        <f>SUM(D44:I44)</f>
-        <v>1</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="1">
-        <f>SUM(L44:Q44)</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AA44" s="1">
-        <f>SUM(T44:Y44)</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AH44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI44" s="1">
-        <f>SUM(AB44:AG44)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <f>SUM(AJ44:AO44)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY44" s="1">
-        <f>SUM(AR44:AW44)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BA44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF44" s="5">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0.25</v>
       </c>
       <c r="BG44" s="1">
-        <f>SUM(AZ44:BE44)</f>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
         <v>4</v>
       </c>
-      <c r="C45" s="1">
-        <v>2</v>
+      <c r="F45" s="1">
+        <v>1</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K45" s="1">
-        <f>SUM(D45:I45)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S45" s="1">
-        <f>SUM(L45:Q45)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>2</v>
       </c>
       <c r="Z45" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AA45" s="1">
-        <f>SUM(T45:Y45)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="AH45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI45" s="1">
-        <f>SUM(AB45:AG45)</f>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="1">
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="AP45" s="5">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <f>SUM(AJ45:AO45)</f>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AX45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY45" s="1">
-        <f>SUM(AR45:AW45)</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>2</v>
       </c>
       <c r="BF45" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="BG45" s="1">
-        <f>SUM(AZ45:BE45)</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <f>SUM(D46:I46)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S46" s="1">
-        <f>SUM(L46:Q46)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA46" s="1">
-        <f>SUM(T46:Y46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI46" s="1">
-        <f>SUM(AB46:AG46)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP46" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0.5</v>
       </c>
       <c r="AQ46" s="1">
-        <f>SUM(AJ46:AO46)</f>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="AX46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY46" s="1">
-        <f>SUM(AR46:AW46)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BF46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG46" s="1">
-        <f>SUM(AZ46:BE46)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <f>SUM(D47:I47)</f>
-        <v>3</v>
-      </c>
-      <c r="L47" s="1">
-        <v>2</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
-        <f>SUM(L47:Q47)</f>
-        <v>2</v>
-      </c>
-      <c r="T47" s="1">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AA47" s="1">
-        <f>SUM(T47:Y47)</f>
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH47" s="5">
-        <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AI47" s="1">
-        <f>SUM(AB47:AG47)</f>
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>1</v>
       </c>
       <c r="AP47" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AQ47" s="1">
-        <f>SUM(AJ47:AO47)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>2</v>
       </c>
       <c r="AX47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY47" s="1">
-        <f>SUM(AR47:AW47)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ47" s="1">
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="BF47" s="5">
-        <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="BG47" s="1">
-        <f>SUM(AZ47:BE47)</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K48" s="1">
-        <f>SUM(D48:I48)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S48" s="1">
-        <f>SUM(L48:Q48)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="1">
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="21"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AA48" s="1">
-        <f>SUM(T48:Y48)</f>
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1">
         <v>2</v>
       </c>
       <c r="AH48" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AI48" s="1">
-        <f>SUM(AB48:AG48)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="AP48" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <f>SUM(AJ48:AO48)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY48" s="1">
-        <f>SUM(AR48:AW48)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ48" s="1">
         <v>1</v>
       </c>
-      <c r="BC48" s="1">
-        <v>2</v>
-      </c>
       <c r="BF48" s="5">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BG48" s="1">
-        <f>SUM(AZ48:BE48)</f>
-        <v>3</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K49" s="1">
-        <f>SUM(D49:I49)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>2</v>
-      </c>
-      <c r="N49" s="1">
-        <v>2</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-      <c r="P49" s="1">
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <f>SUM(L49:Q49)</f>
-        <v>6</v>
-      </c>
-      <c r="W49" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
         <v>2</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA49" s="1">
-        <f>SUM(T49:Y49)</f>
-        <v>2</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="1">
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AH49" s="5">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <f>SUM(AB49:AG49)</f>
-        <v>3</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="AP49" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <f>SUM(AJ49:AO49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY49" s="1">
-        <f>SUM(AR49:AW49)</f>
-        <v>0</v>
-      </c>
-      <c r="BA49" s="1">
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC49" s="1">
+        <v>2</v>
       </c>
       <c r="BF49" s="5">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="BG49" s="1">
-        <f>SUM(AZ49:BE49)</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50" s="5">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="W50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="5">
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="K50" s="1">
-        <f>SUM(D50:I50)</f>
-        <v>1</v>
-      </c>
-      <c r="R50" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="1">
-        <f>SUM(L50:Q50)</f>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AA50" s="1">
-        <f>SUM(T50:Y50)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1</v>
       </c>
       <c r="AF50" s="1">
         <v>2</v>
       </c>
       <c r="AH50" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>0.75</v>
       </c>
       <c r="AI50" s="1">
-        <f>SUM(AB50:AG50)</f>
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="AP50" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <f>SUM(AJ50:AO50)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY50" s="1">
-        <f>SUM(AR50:AW50)</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>1</v>
       </c>
       <c r="BF50" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.25</v>
       </c>
       <c r="BG50" s="1">
-        <f>SUM(AZ50:BE50)</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K51" s="1">
-        <f>SUM(D51:I51)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S51" s="1">
-        <f>SUM(L51:Q51)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z51" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA51" s="1">
-        <f>SUM(T51:Y51)</f>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>2</v>
       </c>
       <c r="AH51" s="5">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="AI51" s="1">
-        <f>SUM(AB51:AG51)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="AP51" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <f>SUM(AJ51:AO51)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY51" s="1">
-        <f>SUM(AR51:AW51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BF51" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG51" s="1">
-        <f>SUM(AZ51:BE51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <f>SUM(D52:I52)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S52" s="1">
-        <f>SUM(L52:Q52)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z52" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA52" s="1">
-        <f>SUM(T52:Y52)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
       </c>
       <c r="AH52" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.5</v>
       </c>
       <c r="AI52" s="1">
-        <f>SUM(AB52:AG52)</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="AP52" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <f>SUM(AJ52:AO52)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY52" s="1">
-        <f>SUM(AR52:AW52)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BF52" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG52" s="1">
-        <f>SUM(AZ52:BE52)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K53" s="1">
-        <f>SUM(D53:I53)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S53" s="1">
-        <f>SUM(L53:Q53)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA53" s="1">
-        <f>SUM(T53:Y53)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI53" s="1">
-        <f>SUM(AB53:AG53)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP53" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <f>SUM(AJ53:AO53)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY53" s="1">
-        <f>SUM(AR53:AW53)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BF53" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG53" s="1">
-        <f>SUM(AZ53:BE53)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <f>SUM(D54:I54)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S54" s="1">
-        <f>SUM(L54:Q54)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA54" s="1">
-        <f>SUM(T54:Y54)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI54" s="1">
-        <f>SUM(AB54:AG54)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP54" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <f>SUM(AJ54:AO54)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AY54" s="1">
-        <f>SUM(AR54:AW54)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BF54" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BG54" s="1">
-        <f>SUM(AZ54:BE54)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AP55" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AX55" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY55" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BF55" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BG55" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C56" s="1">
         <v>20</v>
       </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1">
-        <f>SUM(D55:I55)</f>
-        <v>1</v>
-      </c>
-      <c r="S55" s="1">
-        <f>SUM(L55:Q55)</f>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="1">
-        <f>SUM(T55:Y55)</f>
-        <v>1</v>
-      </c>
-      <c r="AF55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="1">
-        <f>SUM(AB55:AG55)</f>
-        <v>1</v>
-      </c>
-      <c r="AN55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ55" s="1">
-        <f>SUM(AJ55:AO55)</f>
-        <v>1</v>
-      </c>
-      <c r="AU55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY55" s="1">
-        <f>SUM(AR55:AW55)</f>
-        <v>1</v>
-      </c>
-      <c r="BC55" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG55" s="1">
-        <f>SUM(AZ55:BE55)</f>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY56" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="BC56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG56" s="1">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J5:J54">
+  <conditionalFormatting sqref="J6:J55">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5668,7 +5846,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R54">
+  <conditionalFormatting sqref="R6:R55">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5683,7 +5861,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z54">
+  <conditionalFormatting sqref="Z6:Z55">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5698,7 +5876,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AH54">
+  <conditionalFormatting sqref="AH6:AH55">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5713,7 +5891,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP54">
+  <conditionalFormatting sqref="AP6:AP55">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5728,7 +5906,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX54">
+  <conditionalFormatting sqref="AX6:AX55">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5743,7 +5921,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF5:BF54">
+  <conditionalFormatting sqref="BF6:BF55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5763,263 +5941,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
       <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
       <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
       <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
       <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -6027,54 +6272,69 @@
         <v>3</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
       <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
       <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>89</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -6082,10 +6342,13 @@
         <v>3</v>
       </c>
       <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -6093,10 +6356,13 @@
         <v>4</v>
       </c>
       <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -6104,43 +6370,55 @@
         <v>4</v>
       </c>
       <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
       <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
       <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6148,54 +6426,69 @@
         <v>1</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>98</v>
       </c>
       <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>99</v>
       </c>
       <c r="B36">
+        <v>49</v>
+      </c>
+      <c r="C36">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
       <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>101</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -6203,28 +6496,37 @@
         <v>4</v>
       </c>
       <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>103</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
       <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
         <v>12</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>72</v>
       </c>
     </row>
